--- a/Udemy Free (en) - (newest).xlsx
+++ b/Udemy Free (en) - (newest).xlsx
@@ -118,12 +118,12 @@
     <t>https://www.udemy.com/course/foundation-skills-for-meditation/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/foundation-for-digitally-sketching-a-face/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/powerpoint-for-beginners-free/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/foundation-for-digitally-sketching-a-face/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/wordpress-hosting-with-plesk-on-lightsail/</t>
   </si>
   <si>
@@ -346,12 +346,12 @@
     <t>https://www.udemy.com/course/how-to-be-more-productive-c/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/pi-101-piano/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/adobe-xd-experience-design/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/pi-101-piano/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/pso-in-matlab/</t>
   </si>
   <si>
@@ -490,21 +490,21 @@
     <t>https://www.udemy.com/course/getting-started-with-the-paleo-diet/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/commanding-chaos/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/programming-for-entrepreneurs-javascript/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/commanding-chaos/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/master-a-financial-management-habit-and-worry-no-more/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/hyperthinking-upgrade-your-mind-to-success-on-business/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/introduction-to-bootstrap-3/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/hyperthinking-upgrade-your-mind-to-success-on-business/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/astronomy-state-of-the-art/</t>
   </si>
   <si>
@@ -583,12 +583,12 @@
     <t>Foundation Skills for a Successful Meditation Practice</t>
   </si>
   <si>
+    <t>Foundation for Digitally Sketching a Face</t>
+  </si>
+  <si>
     <t>PowerPoint for Beginners - Program &amp; Animation Basics FREE</t>
   </si>
   <si>
-    <t>Foundation for Digitally Sketching a Face</t>
-  </si>
-  <si>
     <t>Make WordPress Hosting Easy with Plesk on Amazon Lightsail</t>
   </si>
   <si>
@@ -811,12 +811,12 @@
     <t>How To Be More Productive</t>
   </si>
   <si>
+    <t>PI-101 Top 10 Classical Piano Pieces for Beginners</t>
+  </si>
+  <si>
     <t>How to Design &amp; Prototype in Adobe XD</t>
   </si>
   <si>
-    <t>PI-101 Top 10 Classical Piano Pieces for Beginners</t>
-  </si>
-  <si>
     <t>Particle Swarm Optimization in MATLAB</t>
   </si>
   <si>
@@ -955,21 +955,21 @@
     <t xml:space="preserve">Getting Started with the Paleo Diet </t>
   </si>
   <si>
+    <t>Commanding Chaos - Make a Plan and Take Command!</t>
+  </si>
+  <si>
     <t>Programming for Entrepreneurs - JavaScript</t>
   </si>
   <si>
-    <t>Commanding Chaos - Make a Plan and Take Command!</t>
-  </si>
-  <si>
     <t>Master a Financial Management Habit &amp; Worry No More</t>
   </si>
   <si>
+    <t>Hyperthinking: improve your day to day learning &amp; creativity</t>
+  </si>
+  <si>
     <t>Introduction to Bootstrap 3</t>
   </si>
   <si>
-    <t>Hyperthinking: improve your day to day learning &amp; creativity</t>
-  </si>
-  <si>
     <t>Astronomy - State of the Art</t>
   </si>
   <si>
@@ -1048,12 +1048,12 @@
     <t>Learn how to find comfort in stillness, handle distraction and keep the mind focused to reap the benefits of meditation</t>
   </si>
   <si>
+    <t>Accentuation of proper detail</t>
+  </si>
+  <si>
     <t>PowerPoint basics is a free course where you learn basics about the software and its animation features. Enjoy!</t>
   </si>
   <si>
-    <t>Accentuation of proper detail</t>
-  </si>
-  <si>
     <t>Host your WordPress website on Amazon Lightsail and simplify WordPress WebOps with Plesk hosting platform</t>
   </si>
   <si>
@@ -1276,12 +1276,12 @@
     <t>Organise your life and get more done than you ever thought possible.</t>
   </si>
   <si>
+    <t>PI-101 In this 12-week course,  you will learn how to play 10 beautiful classical piano pieces for beginners.</t>
+  </si>
+  <si>
     <t>Everything you need to know about Adobe XD to start designing &amp; prototyping awesome apps.</t>
   </si>
   <si>
-    <t>PI-101 In this 12-week course,  you will learn how to play 10 beautiful classical piano pieces for beginners.</t>
-  </si>
-  <si>
     <t>A video tutorial on PSO and its implementation in MATLAB from scratch</t>
   </si>
   <si>
@@ -1420,21 +1420,21 @@
     <t>The basics of getting started with the paleo diet and lifestyle strategies to help you lose body fat and get lean.</t>
   </si>
   <si>
+    <t>Learn how to achieve your long AND short term goals by using proven methods rooted in emergency response operations.</t>
+  </si>
+  <si>
     <t>Learn JavaScript from scratch and get started with that website/app/game project!</t>
   </si>
   <si>
-    <t>Learn how to achieve your long AND short term goals by using proven methods rooted in emergency response operations.</t>
-  </si>
-  <si>
     <t>Step by step instructions using CalendarBudget, you'll learn the habit of excellent budget management!</t>
   </si>
   <si>
+    <t>Train your mind for success with the right thinking tools and habits!</t>
+  </si>
+  <si>
     <t>An introduction to the basic features of Twitter Bootstrap 3 including the grid system, responsive utilities and mixins.</t>
   </si>
   <si>
-    <t>Train your mind for success with the right thinking tools and habits!</t>
-  </si>
-  <si>
     <t>Join Prof. Chris Impey in this Astronomy for beginners course and learn about today's amazing astronomical discoveries!</t>
   </si>
   <si>
@@ -1504,12 +1504,12 @@
     <t>Laura Goellner E-RYT, C-IAYT</t>
   </si>
   <si>
+    <t>Chris Scalf</t>
+  </si>
+  <si>
     <t>Andrew Pach</t>
   </si>
   <si>
-    <t>Chris Scalf</t>
-  </si>
-  <si>
     <t>Gavin Edley</t>
   </si>
   <si>
@@ -1711,12 +1711,12 @@
     <t>Tony Staunton</t>
   </si>
   <si>
+    <t>Dan Hegelund</t>
+  </si>
+  <si>
     <t>Daniel White</t>
   </si>
   <si>
-    <t>Dan Hegelund</t>
-  </si>
-  <si>
     <t>Yarpiz Team, Mostapha Kalami Heris</t>
   </si>
   <si>
@@ -1837,19 +1837,19 @@
     <t>Chris Hiestand</t>
   </si>
   <si>
+    <t>James J. Stamatelos</t>
+  </si>
+  <si>
     <t>Pablo Farias Navarro, Zenva Academy</t>
   </si>
   <si>
-    <t>James J. Stamatelos</t>
-  </si>
-  <si>
     <t>Eric Poulin</t>
   </si>
   <si>
+    <t>Digital Masterclass - Online Series, Philip Weiss</t>
+  </si>
+  <si>
     <t>AJ Meyghani</t>
-  </si>
-  <si>
-    <t>Digital Masterclass - Online Series, Philip Weiss</t>
   </si>
   <si>
     <t>Chris Impey, Matthew Wenger, Martin Formanek</t>
@@ -2624,10 +2624,10 @@
         <v>474</v>
       </c>
       <c r="E4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G4" t="s">
         <v>641</v>
@@ -3291,19 +3291,19 @@
         <v>496</v>
       </c>
       <c r="E27" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F27" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G27" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="H27" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="I27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3320,19 +3320,19 @@
         <v>497</v>
       </c>
       <c r="E28" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F28" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G28" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="H28" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="I28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3349,10 +3349,10 @@
         <v>481</v>
       </c>
       <c r="E29" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F29" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="G29" t="s">
         <v>639</v>
@@ -3987,10 +3987,10 @@
         <v>517</v>
       </c>
       <c r="E51" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F51" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G51" t="s">
         <v>639</v>
@@ -4277,10 +4277,10 @@
         <v>527</v>
       </c>
       <c r="E61" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F61" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G61" t="s">
         <v>645</v>
@@ -4393,10 +4393,10 @@
         <v>519</v>
       </c>
       <c r="E65" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F65" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G65" t="s">
         <v>645</v>
@@ -4422,10 +4422,10 @@
         <v>531</v>
       </c>
       <c r="E66" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F66" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G66" t="s">
         <v>640</v>
@@ -4712,10 +4712,10 @@
         <v>541</v>
       </c>
       <c r="E76" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="F76" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G76" t="s">
         <v>645</v>
@@ -4857,10 +4857,10 @@
         <v>545</v>
       </c>
       <c r="E81" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F81" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G81" t="s">
         <v>639</v>
@@ -4973,10 +4973,10 @@
         <v>548</v>
       </c>
       <c r="E85" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F85" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G85" t="s">
         <v>645</v>
@@ -5495,19 +5495,19 @@
         <v>565</v>
       </c>
       <c r="E103" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F103" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G103" t="s">
         <v>639</v>
       </c>
       <c r="H103" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="I103" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5524,19 +5524,19 @@
         <v>566</v>
       </c>
       <c r="E104" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F104" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G104" t="s">
         <v>639</v>
       </c>
       <c r="H104" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="I104" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5582,10 +5582,10 @@
         <v>568</v>
       </c>
       <c r="E106" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F106" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G106" t="s">
         <v>656</v>
@@ -6713,10 +6713,10 @@
         <v>603</v>
       </c>
       <c r="E145" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F145" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G145" t="s">
         <v>640</v>
@@ -6887,19 +6887,19 @@
         <v>607</v>
       </c>
       <c r="E151" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F151" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="G151" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H151" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="I151" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6916,19 +6916,19 @@
         <v>608</v>
       </c>
       <c r="E152" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F152" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G152" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H152" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="I152" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6945,10 +6945,10 @@
         <v>609</v>
       </c>
       <c r="E153" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F153" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="G153" t="s">
         <v>639</v>
@@ -6974,19 +6974,19 @@
         <v>610</v>
       </c>
       <c r="E154" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F154" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G154" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H154" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="I154" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7003,19 +7003,19 @@
         <v>611</v>
       </c>
       <c r="E155" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F155" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="G155" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H155" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="I155" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="156" spans="1:9">
